--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3052,28 +3052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.9193754557662</v>
+        <v>311.726786323568</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.3189592799975</v>
+        <v>426.5183414631226</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.5530796576026</v>
+        <v>385.8120295761333</v>
       </c>
       <c r="AD2" t="n">
-        <v>250919.3754557662</v>
+        <v>311726.786323568</v>
       </c>
       <c r="AE2" t="n">
-        <v>343318.9592799975</v>
+        <v>426518.3414631226</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.609210272172297e-06</v>
+        <v>2.977460317987767e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.440104166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>310553.0796576026</v>
+        <v>385812.0295761334</v>
       </c>
     </row>
     <row r="3">
@@ -3158,28 +3158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.9443647914192</v>
+        <v>235.7267672461312</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.7855273108047</v>
+        <v>322.531762477015</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.3737155815783</v>
+        <v>291.7497837424762</v>
       </c>
       <c r="AD3" t="n">
-        <v>186944.3647914192</v>
+        <v>235726.7672461312</v>
       </c>
       <c r="AE3" t="n">
-        <v>255785.5273108047</v>
+        <v>322531.762477015</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.018153499355417e-06</v>
+        <v>3.734112355514177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.532552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>231373.7155815783</v>
+        <v>291749.7837424761</v>
       </c>
     </row>
     <row r="4">
@@ -3264,28 +3264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.8530388765457</v>
+        <v>212.5501004766861</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.1909564766889</v>
+        <v>290.8204245207015</v>
       </c>
       <c r="AC4" t="n">
-        <v>202.7944862446017</v>
+        <v>263.0649313735607</v>
       </c>
       <c r="AD4" t="n">
-        <v>163853.0388765457</v>
+        <v>212550.1004766861</v>
       </c>
       <c r="AE4" t="n">
-        <v>224190.9564766889</v>
+        <v>290820.4245207015</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.174168141506785e-06</v>
+        <v>4.022780290378703e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.9921875</v>
       </c>
       <c r="AH4" t="n">
-        <v>202794.4862446017</v>
+        <v>263064.9313735607</v>
       </c>
     </row>
     <row r="5">
@@ -3370,28 +3370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>158.2883554587848</v>
+        <v>206.9854170589252</v>
       </c>
       <c r="AB5" t="n">
-        <v>216.577111128006</v>
+        <v>283.2065791720187</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.9072956098958</v>
+        <v>256.1777407388548</v>
       </c>
       <c r="AD5" t="n">
-        <v>158288.3554587848</v>
+        <v>206985.4170589252</v>
       </c>
       <c r="AE5" t="n">
-        <v>216577.111128006</v>
+        <v>283206.5791720187</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.249234432523961e-06</v>
+        <v>4.161672582198619e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.7578125</v>
       </c>
       <c r="AH5" t="n">
-        <v>195907.2956098958</v>
+        <v>256177.7407388547</v>
       </c>
     </row>
     <row r="6">
@@ -3476,28 +3476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.4664782797058</v>
+        <v>203.1635398798462</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.3478501622714</v>
+        <v>277.9773182062841</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.1771079714153</v>
+        <v>251.4475531003743</v>
       </c>
       <c r="AD6" t="n">
-        <v>154466.4782797058</v>
+        <v>203163.5398798462</v>
       </c>
       <c r="AE6" t="n">
-        <v>211347.8501622714</v>
+        <v>277977.3182062841</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.302056266035113e-06</v>
+        <v>4.259406803712448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.6015625</v>
       </c>
       <c r="AH6" t="n">
-        <v>191177.1079714153</v>
+        <v>251447.5531003743</v>
       </c>
     </row>
     <row r="7">
@@ -3582,28 +3582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>150.8268742833153</v>
+        <v>187.3284247783288</v>
       </c>
       <c r="AB7" t="n">
-        <v>206.3679834064165</v>
+        <v>256.3110151284249</v>
       </c>
       <c r="AC7" t="n">
-        <v>186.6725127094507</v>
+        <v>231.8490515794118</v>
       </c>
       <c r="AD7" t="n">
-        <v>150826.8742833153</v>
+        <v>187328.4247783288</v>
       </c>
       <c r="AE7" t="n">
-        <v>206367.9834064165</v>
+        <v>256311.0151284249</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.342553783110611e-06</v>
+        <v>4.334337813136438e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH7" t="n">
-        <v>186672.5127094507</v>
+        <v>231849.0515794118</v>
       </c>
     </row>
     <row r="8">
@@ -3688,28 +3688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>148.6184671267587</v>
+        <v>185.1200176217721</v>
       </c>
       <c r="AB8" t="n">
-        <v>203.3463433067697</v>
+        <v>253.2893750287781</v>
       </c>
       <c r="AC8" t="n">
-        <v>183.9392537000147</v>
+        <v>229.1157925699758</v>
       </c>
       <c r="AD8" t="n">
-        <v>148618.4671267587</v>
+        <v>185120.0176217722</v>
       </c>
       <c r="AE8" t="n">
-        <v>203346.3433067696</v>
+        <v>253289.3750287781</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.356208565525116e-06</v>
+        <v>4.359602735622337e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.451822916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>183939.2537000147</v>
+        <v>229115.7925699758</v>
       </c>
     </row>
     <row r="9">
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>145.9371000603925</v>
+        <v>182.4386505554059</v>
       </c>
       <c r="AB9" t="n">
-        <v>199.677578593003</v>
+        <v>249.6206103150114</v>
       </c>
       <c r="AC9" t="n">
-        <v>180.6206307413851</v>
+        <v>225.7971696113462</v>
       </c>
       <c r="AD9" t="n">
-        <v>145937.1000603925</v>
+        <v>182438.6505554059</v>
       </c>
       <c r="AE9" t="n">
-        <v>199677.578593003</v>
+        <v>249620.6103150114</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.382724519068496e-06</v>
+        <v>4.408664191936835e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>180620.6307413851</v>
+        <v>225797.1696113462</v>
       </c>
     </row>
     <row r="10">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>146.1253621640487</v>
+        <v>182.6269126590621</v>
       </c>
       <c r="AB10" t="n">
-        <v>199.9351671087631</v>
+        <v>249.8781988307715</v>
       </c>
       <c r="AC10" t="n">
-        <v>180.8536353707289</v>
+        <v>226.03017424069</v>
       </c>
       <c r="AD10" t="n">
-        <v>146125.3621640487</v>
+        <v>182626.9126590621</v>
       </c>
       <c r="AE10" t="n">
-        <v>199935.1671087631</v>
+        <v>249878.1988307715</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.381790858732461e-06</v>
+        <v>4.406936675869423e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>180853.6353707289</v>
+        <v>226030.17424069</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.5075002939131</v>
+        <v>251.4770974787608</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.8161841361584</v>
+        <v>344.0820591568174</v>
       </c>
       <c r="AC2" t="n">
-        <v>253.1109202467665</v>
+        <v>311.2433503531964</v>
       </c>
       <c r="AD2" t="n">
-        <v>204507.5002939131</v>
+        <v>251477.0974787608</v>
       </c>
       <c r="AE2" t="n">
-        <v>279816.1841361584</v>
+        <v>344082.0591568174</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.861426753561658e-06</v>
+        <v>3.548166670744264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.444010416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>253110.9202467665</v>
+        <v>311243.3503531964</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.0679741752406</v>
+        <v>202.3592000819429</v>
       </c>
       <c r="AB3" t="n">
-        <v>228.5897727852962</v>
+        <v>276.8767850098259</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.7734856984945</v>
+        <v>250.4520532475777</v>
       </c>
       <c r="AD3" t="n">
-        <v>167067.9741752406</v>
+        <v>202359.2000819429</v>
       </c>
       <c r="AE3" t="n">
-        <v>228589.7727852963</v>
+        <v>276876.7850098259</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.22364785813142e-06</v>
+        <v>4.238615998506133e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.0703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>206773.4856984945</v>
+        <v>250452.0532475777</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.9688064917494</v>
+        <v>193.9383141680461</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.0892048480602</v>
+        <v>265.3549573991709</v>
       </c>
       <c r="AC4" t="n">
-        <v>181.89753336789</v>
+        <v>240.0298526930933</v>
       </c>
       <c r="AD4" t="n">
-        <v>146968.8064917494</v>
+        <v>193938.3141680461</v>
       </c>
       <c r="AE4" t="n">
-        <v>201089.2048480602</v>
+        <v>265354.9573991709</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360171964873467e-06</v>
+        <v>4.498852016049337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.66015625</v>
       </c>
       <c r="AH4" t="n">
-        <v>181897.53336789</v>
+        <v>240029.8526930934</v>
       </c>
     </row>
     <row r="5">
@@ -4515,28 +4515,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.1475425950965</v>
+        <v>177.3534276472271</v>
       </c>
       <c r="AB5" t="n">
-        <v>194.4925388855114</v>
+        <v>242.6627839878434</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.930443946326</v>
+        <v>219.5033884634703</v>
       </c>
       <c r="AD5" t="n">
-        <v>142147.5425950965</v>
+        <v>177353.4276472271</v>
       </c>
       <c r="AE5" t="n">
-        <v>194492.5388855114</v>
+        <v>242662.7839878434</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.434108437254816e-06</v>
+        <v>4.639786343201317e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.458333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>175930.443946326</v>
+        <v>219503.3884634703</v>
       </c>
     </row>
     <row r="6">
@@ -4621,28 +4621,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>138.4224080127861</v>
+        <v>173.6282930649168</v>
       </c>
       <c r="AB6" t="n">
-        <v>189.3956454086578</v>
+        <v>237.5658905109898</v>
       </c>
       <c r="AC6" t="n">
-        <v>171.3199908293667</v>
+        <v>214.8929353465111</v>
       </c>
       <c r="AD6" t="n">
-        <v>138422.4080127861</v>
+        <v>173628.2930649168</v>
       </c>
       <c r="AE6" t="n">
-        <v>189395.6454086578</v>
+        <v>237565.8905109898</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.473032537019262e-06</v>
+        <v>4.713981684602032e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>171319.9908293667</v>
+        <v>214892.9353465111</v>
       </c>
     </row>
     <row r="7">
@@ -4727,28 +4727,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>136.103011727901</v>
+        <v>171.3088967800317</v>
       </c>
       <c r="AB7" t="n">
-        <v>186.2221450871372</v>
+        <v>234.3923901894692</v>
       </c>
       <c r="AC7" t="n">
-        <v>168.4493649244954</v>
+        <v>212.0223094416397</v>
       </c>
       <c r="AD7" t="n">
-        <v>136103.011727901</v>
+        <v>171308.8967800317</v>
       </c>
       <c r="AE7" t="n">
-        <v>186222.1450871372</v>
+        <v>234392.3901894692</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.500269748268825e-06</v>
+        <v>4.765900012827843e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.2890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>168449.3649244954</v>
+        <v>212022.3094416398</v>
       </c>
     </row>
     <row r="8">
@@ -4833,28 +4833,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.2782044109875</v>
+        <v>171.4840894631181</v>
       </c>
       <c r="AB8" t="n">
-        <v>186.4618514450917</v>
+        <v>234.6320965474237</v>
       </c>
       <c r="AC8" t="n">
-        <v>168.6661940440767</v>
+        <v>212.2391385612211</v>
       </c>
       <c r="AD8" t="n">
-        <v>136278.2044109875</v>
+        <v>171484.0894631181</v>
       </c>
       <c r="AE8" t="n">
-        <v>186461.8514450917</v>
+        <v>234632.0965474237</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.499931697774593e-06</v>
+        <v>4.765255636413693e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.2890625</v>
       </c>
       <c r="AH8" t="n">
-        <v>168666.1940440767</v>
+        <v>212239.1385612211</v>
       </c>
     </row>
   </sheetData>
@@ -5130,28 +5130,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.141582196744</v>
+        <v>160.9100113069353</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.0147689171602</v>
+        <v>220.1641763187369</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.4568681644166</v>
+        <v>199.1520163333021</v>
       </c>
       <c r="AD2" t="n">
-        <v>119141.582196744</v>
+        <v>160910.0113069353</v>
       </c>
       <c r="AE2" t="n">
-        <v>163014.7689171602</v>
+        <v>220164.1763187369</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.628758179988717e-06</v>
+        <v>5.59856696964678e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.673177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>147456.8681644165</v>
+        <v>199152.0163333021</v>
       </c>
     </row>
     <row r="3">
@@ -5236,28 +5236,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.5946498009717</v>
+        <v>141.8997259285234</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.320478949225</v>
+        <v>194.1534651894066</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.8786648179783</v>
+        <v>175.6237309678844</v>
       </c>
       <c r="AD3" t="n">
-        <v>110594.6498009717</v>
+        <v>141899.7259285234</v>
       </c>
       <c r="AE3" t="n">
-        <v>151320.478949225</v>
+        <v>194153.4651894066</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.845953248752698e-06</v>
+        <v>6.061135625527255e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>136878.6648179783</v>
+        <v>175623.7309678844</v>
       </c>
     </row>
     <row r="4">
@@ -5342,28 +5342,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.9019970295987</v>
+        <v>142.2070731571503</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.741004986635</v>
+        <v>194.5739912268165</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.25905644059</v>
+        <v>176.004122590496</v>
       </c>
       <c r="AD4" t="n">
-        <v>110901.9970295987</v>
+        <v>142207.0731571503</v>
       </c>
       <c r="AE4" t="n">
-        <v>151741.004986635</v>
+        <v>194573.9912268165</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.84568380939187e-06</v>
+        <v>6.060561790201763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>137259.05644059</v>
+        <v>176004.122590496</v>
       </c>
     </row>
   </sheetData>
@@ -5639,28 +5639,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.453845409533</v>
+        <v>183.3693230566846</v>
       </c>
       <c r="AB2" t="n">
-        <v>205.8575888444353</v>
+        <v>250.8939974896333</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.2108294881216</v>
+        <v>226.9490265012327</v>
       </c>
       <c r="AD2" t="n">
-        <v>150453.845409533</v>
+        <v>183369.3230566846</v>
       </c>
       <c r="AE2" t="n">
-        <v>205857.5888444353</v>
+        <v>250893.9974896333</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.321268705040431e-06</v>
+        <v>4.712978007320008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>186210.8294881216</v>
+        <v>226949.0265012327</v>
       </c>
     </row>
     <row r="3">
@@ -5745,28 +5745,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.2230889245727</v>
+        <v>158.0532257171527</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.3357547193127</v>
+        <v>216.255396242313</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.9837107601911</v>
+        <v>195.6162847413635</v>
       </c>
       <c r="AD3" t="n">
-        <v>125223.0889245727</v>
+        <v>158053.2257171527</v>
       </c>
       <c r="AE3" t="n">
-        <v>171335.7547193127</v>
+        <v>216255.396242313</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.626976911691769e-06</v>
+        <v>5.333671359828674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.38671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>154983.7107601911</v>
+        <v>195616.2847413635</v>
       </c>
     </row>
     <row r="4">
@@ -5851,28 +5851,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.0517020749617</v>
+        <v>152.8818388675417</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.2600350861923</v>
+        <v>209.1796766091927</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.5832878780187</v>
+        <v>189.2158618591911</v>
       </c>
       <c r="AD4" t="n">
-        <v>120051.7020749617</v>
+        <v>152881.8388675417</v>
       </c>
       <c r="AE4" t="n">
-        <v>164260.0350861923</v>
+        <v>209179.6766091927</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.715596204648539e-06</v>
+        <v>5.513599163026379e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>148583.2878780187</v>
+        <v>189215.8618591911</v>
       </c>
     </row>
     <row r="5">
@@ -5957,28 +5957,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.2893151189287</v>
+        <v>153.1194519115087</v>
       </c>
       <c r="AB5" t="n">
-        <v>164.5851477356955</v>
+        <v>209.5047892586958</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.8773722325518</v>
+        <v>189.5099462137242</v>
       </c>
       <c r="AD5" t="n">
-        <v>120289.3151189287</v>
+        <v>153119.4519115087</v>
       </c>
       <c r="AE5" t="n">
-        <v>164585.1477356955</v>
+        <v>209504.7892586958</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.715596204648539e-06</v>
+        <v>5.513599163026379e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>148877.3722325518</v>
+        <v>189509.9462137242</v>
       </c>
     </row>
   </sheetData>
@@ -6254,28 +6254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.3407123251949</v>
+        <v>134.3949258701543</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.7635657906223</v>
+        <v>183.8850666611397</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.1384114415269</v>
+        <v>166.3353339833641</v>
       </c>
       <c r="AD2" t="n">
-        <v>104340.7123251949</v>
+        <v>134394.9258701543</v>
       </c>
       <c r="AE2" t="n">
-        <v>142763.5657906223</v>
+        <v>183885.0666611397</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.897360256486802e-06</v>
+        <v>6.451855367082283e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.2890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>129138.4114415269</v>
+        <v>166335.3339833641</v>
       </c>
     </row>
     <row r="3">
@@ -6360,28 +6360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.8703177734192</v>
+        <v>133.9245313183787</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.1199512125401</v>
+        <v>183.2414520830575</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.556222535458</v>
+        <v>165.7531450772952</v>
       </c>
       <c r="AD3" t="n">
-        <v>103870.3177734192</v>
+        <v>133924.5313183787</v>
       </c>
       <c r="AE3" t="n">
-        <v>142119.9512125402</v>
+        <v>183241.4520830575</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.921370137883638e-06</v>
+        <v>6.505320683245977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>128556.222535458</v>
+        <v>165753.1450772952</v>
       </c>
     </row>
   </sheetData>
@@ -6657,28 +6657,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.4514302577102</v>
+        <v>272.7522410411004</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.0536636909615</v>
+        <v>373.1916491720643</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.1804719282736</v>
+        <v>337.574761952851</v>
       </c>
       <c r="AD2" t="n">
-        <v>213451.4302577102</v>
+        <v>272752.2410411004</v>
       </c>
       <c r="AE2" t="n">
-        <v>292053.6636909615</v>
+        <v>373191.6491720643</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.787011526442875e-06</v>
+        <v>3.37881646960841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.717447916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>264180.4719282736</v>
+        <v>337574.761952851</v>
       </c>
     </row>
     <row r="3">
@@ -6763,28 +6763,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.6905957084825</v>
+        <v>207.3223761998086</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.9146475027436</v>
+        <v>283.6676215341632</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.4947232499281</v>
+        <v>256.5947818650334</v>
       </c>
       <c r="AD3" t="n">
-        <v>171690.5957084825</v>
+        <v>207322.3761998086</v>
       </c>
       <c r="AE3" t="n">
-        <v>234914.6475027436</v>
+        <v>283667.6215341632</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.171966324721973e-06</v>
+        <v>4.106675016256559e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>212494.7232499282</v>
+        <v>256594.7818650334</v>
       </c>
     </row>
     <row r="4">
@@ -6869,28 +6869,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.3569375294563</v>
+        <v>198.7805179852514</v>
       </c>
       <c r="AB4" t="n">
-        <v>207.0932393245263</v>
+        <v>271.9802742848236</v>
       </c>
       <c r="AC4" t="n">
-        <v>187.3285512206394</v>
+        <v>246.0228586338721</v>
       </c>
       <c r="AD4" t="n">
-        <v>151356.9375294563</v>
+        <v>198780.5179852514</v>
       </c>
       <c r="AE4" t="n">
-        <v>207093.2393245263</v>
+        <v>271980.2742848236</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.306905101839884e-06</v>
+        <v>4.361812353519499e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.751302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>187328.5512206394</v>
+        <v>246022.8586338721</v>
       </c>
     </row>
     <row r="5">
@@ -6975,28 +6975,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>146.3720245512567</v>
+        <v>182.0890563886034</v>
       </c>
       <c r="AB5" t="n">
-        <v>200.2726614689175</v>
+        <v>249.1422801529864</v>
       </c>
       <c r="AC5" t="n">
-        <v>181.1589197428266</v>
+        <v>225.364490608644</v>
       </c>
       <c r="AD5" t="n">
-        <v>146372.0245512567</v>
+        <v>182089.0563886034</v>
       </c>
       <c r="AE5" t="n">
-        <v>200272.6614689175</v>
+        <v>249142.2801529864</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.381780688575466e-06</v>
+        <v>4.503384392585954e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.54296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>181158.9197428266</v>
+        <v>225364.4906086441</v>
       </c>
     </row>
     <row r="6">
@@ -7081,28 +7081,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.2239689508258</v>
+        <v>177.7704085875802</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.5971087971131</v>
+        <v>243.2333157063351</v>
       </c>
       <c r="AC6" t="n">
-        <v>176.0250338523292</v>
+        <v>220.0194694354957</v>
       </c>
       <c r="AD6" t="n">
-        <v>142223.9689508258</v>
+        <v>177770.4085875803</v>
       </c>
       <c r="AE6" t="n">
-        <v>194597.1087971131</v>
+        <v>243233.3157063351</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.434329997770524e-06</v>
+        <v>4.602742717223197e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.399739583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>176025.0338523292</v>
+        <v>220019.4694354957</v>
       </c>
     </row>
     <row r="7">
@@ -7187,28 +7187,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>139.4321955281749</v>
+        <v>174.9786351649294</v>
       </c>
       <c r="AB7" t="n">
-        <v>190.7772812358931</v>
+        <v>239.4134881451151</v>
       </c>
       <c r="AC7" t="n">
-        <v>172.5697652723892</v>
+        <v>216.5642008555556</v>
       </c>
       <c r="AD7" t="n">
-        <v>139432.1955281749</v>
+        <v>174978.6351649294</v>
       </c>
       <c r="AE7" t="n">
-        <v>190777.2812358931</v>
+        <v>239413.4881451151</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.462447228327989e-06</v>
+        <v>4.655905755223543e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH7" t="n">
-        <v>172569.7652723892</v>
+        <v>216564.2008555557</v>
       </c>
     </row>
     <row r="8">
@@ -7293,28 +7293,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.1824686007118</v>
+        <v>173.7289082374663</v>
       </c>
       <c r="AB8" t="n">
-        <v>189.0673497196781</v>
+        <v>237.7035566289001</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.0230272201773</v>
+        <v>215.0174628033437</v>
       </c>
       <c r="AD8" t="n">
-        <v>138182.4686007118</v>
+        <v>173728.9082374663</v>
       </c>
       <c r="AE8" t="n">
-        <v>189067.3497196781</v>
+        <v>237703.5566289001</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.475823851205966e-06</v>
+        <v>4.681197787770092e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.295572916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>171023.0272201773</v>
+        <v>215017.4628033437</v>
       </c>
     </row>
   </sheetData>
@@ -7590,28 +7590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.60898768394668</v>
+        <v>128.922503292322</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.2894113875114</v>
+        <v>176.3974566639081</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.2821412481141</v>
+        <v>159.5623309753393</v>
       </c>
       <c r="AD2" t="n">
-        <v>99608.98768394667</v>
+        <v>128922.503292322</v>
       </c>
       <c r="AE2" t="n">
-        <v>136289.4113875114</v>
+        <v>176397.4566639081</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.94256778743664e-06</v>
+        <v>6.746033063755564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.334635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>123282.1412481141</v>
+        <v>159562.3309753393</v>
       </c>
     </row>
   </sheetData>
@@ -7887,28 +7887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.9808273128422</v>
+        <v>216.5619899794696</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.9435110710574</v>
+        <v>296.3096687304804</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.6162707162832</v>
+        <v>268.0302898201627</v>
       </c>
       <c r="AD2" t="n">
-        <v>170980.8273128422</v>
+        <v>216561.9899794696</v>
       </c>
       <c r="AE2" t="n">
-        <v>233943.5110710574</v>
+        <v>296309.6687304804</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.073186716319317e-06</v>
+        <v>4.063417312681897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>211616.2707162832</v>
+        <v>268030.2898201628</v>
       </c>
     </row>
     <row r="3">
@@ -7993,28 +7993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.5062211362216</v>
+        <v>186.0020429482773</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.2468104554876</v>
+        <v>254.496200992713</v>
       </c>
       <c r="AC3" t="n">
-        <v>173.8990446857633</v>
+        <v>230.207440757704</v>
       </c>
       <c r="AD3" t="n">
-        <v>140506.2211362216</v>
+        <v>186002.0429482773</v>
       </c>
       <c r="AE3" t="n">
-        <v>192246.8104554876</v>
+        <v>254496.200992713</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.408496984311011e-06</v>
+        <v>4.720620803979783e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.725260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>173899.0446857633</v>
+        <v>230207.440757704</v>
       </c>
     </row>
     <row r="4">
@@ -8099,28 +8099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.3990980809055</v>
+        <v>167.4997187348554</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.5225311470687</v>
+        <v>229.1805047389866</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.102836946425</v>
+        <v>207.3078390236224</v>
       </c>
       <c r="AD4" t="n">
-        <v>133399.0980809055</v>
+        <v>167499.7187348554</v>
       </c>
       <c r="AE4" t="n">
-        <v>182522.5311470687</v>
+        <v>229180.5047389866</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.527564720073605e-06</v>
+        <v>4.953991920566196e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH4" t="n">
-        <v>165102.836946425</v>
+        <v>207307.8390236224</v>
       </c>
     </row>
     <row r="5">
@@ -8205,28 +8205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.8671655301293</v>
+        <v>162.9677861840793</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.3217410963464</v>
+        <v>222.9797146882644</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.4938415952782</v>
+        <v>201.6988436724756</v>
       </c>
       <c r="AD5" t="n">
-        <v>128867.1655301294</v>
+        <v>162967.7861840793</v>
       </c>
       <c r="AE5" t="n">
-        <v>176321.7410963464</v>
+        <v>222979.7146882644</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.590357650509206e-06</v>
+        <v>5.077065196425808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH5" t="n">
-        <v>159493.8415952782</v>
+        <v>201698.8436724756</v>
       </c>
     </row>
     <row r="6">
@@ -8311,28 +8311,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.3729844050928</v>
+        <v>162.4736050590427</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.6455806793391</v>
+        <v>222.3035542712571</v>
       </c>
       <c r="AC6" t="n">
-        <v>158.8822129794728</v>
+        <v>201.0872150566703</v>
       </c>
       <c r="AD6" t="n">
-        <v>128372.9844050928</v>
+        <v>162473.6050590427</v>
       </c>
       <c r="AE6" t="n">
-        <v>175645.5806793391</v>
+        <v>222303.5542712571</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.599537758009498e-06</v>
+        <v>5.095058080257899e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.23046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>158882.2129794728</v>
+        <v>201087.2150566702</v>
       </c>
     </row>
   </sheetData>
@@ -8608,28 +8608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.8134097452181</v>
+        <v>243.3116674632152</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.2887900081206</v>
+        <v>332.9097575762053</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.5882458390149</v>
+        <v>301.1373175550106</v>
       </c>
       <c r="AD2" t="n">
-        <v>196813.4097452181</v>
+        <v>243311.6674632152</v>
       </c>
       <c r="AE2" t="n">
-        <v>269288.7900081206</v>
+        <v>332909.7575762053</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.928809632802793e-06</v>
+        <v>3.708528224111183e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.229166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>243588.2458390149</v>
+        <v>301137.3175550106</v>
       </c>
     </row>
     <row r="3">
@@ -8714,28 +8714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.8719425960463</v>
+        <v>196.3701108054924</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.0614037432829</v>
+        <v>268.6822488418192</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.4906311755701</v>
+        <v>243.0395921103392</v>
       </c>
       <c r="AD3" t="n">
-        <v>149871.9425960463</v>
+        <v>196370.1108054924</v>
       </c>
       <c r="AE3" t="n">
-        <v>205061.4037432829</v>
+        <v>268682.2488418192</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.289766728174137e-06</v>
+        <v>4.402541543576332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.93359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>185490.6311755701</v>
+        <v>243039.5921103392</v>
       </c>
     </row>
     <row r="4">
@@ -8820,28 +8820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>142.555030888045</v>
+        <v>177.5780035406299</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.050082345038</v>
+        <v>242.970058632786</v>
       </c>
       <c r="AC4" t="n">
-        <v>176.4347762405926</v>
+        <v>219.7813372475624</v>
       </c>
       <c r="AD4" t="n">
-        <v>142555.030888045</v>
+        <v>177578.0035406298</v>
       </c>
       <c r="AE4" t="n">
-        <v>195050.082345038</v>
+        <v>242970.058632786</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.415107178228125e-06</v>
+        <v>4.643534013098875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.569010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>176434.7762405926</v>
+        <v>219781.3372475624</v>
       </c>
     </row>
     <row r="5">
@@ -8926,28 +8926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.5106416173668</v>
+        <v>172.3630220693595</v>
       </c>
       <c r="AB5" t="n">
-        <v>188.1481264021512</v>
+        <v>235.8346909150524</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.1915332859369</v>
+        <v>213.3269590102556</v>
       </c>
       <c r="AD5" t="n">
-        <v>137510.6416173668</v>
+        <v>172363.0220693595</v>
       </c>
       <c r="AE5" t="n">
-        <v>188148.1264021512</v>
+        <v>235834.6909150525</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.493134167847498e-06</v>
+        <v>4.793556746459757e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.3671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>170191.5332859369</v>
+        <v>213326.9590102556</v>
       </c>
     </row>
     <row r="6">
@@ -9032,28 +9032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>134.1886204546386</v>
+        <v>169.0410009066313</v>
       </c>
       <c r="AB6" t="n">
-        <v>183.6027904900786</v>
+        <v>231.2893550029798</v>
       </c>
       <c r="AC6" t="n">
-        <v>166.079997853892</v>
+        <v>209.2154235782106</v>
       </c>
       <c r="AD6" t="n">
-        <v>134188.6204546386</v>
+        <v>169041.0009066313</v>
       </c>
       <c r="AE6" t="n">
-        <v>183602.7904900786</v>
+        <v>231289.3550029798</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.528113464974583e-06</v>
+        <v>4.860811548825539e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.276041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>166079.997853892</v>
+        <v>209215.4235782106</v>
       </c>
     </row>
     <row r="7">
@@ -9138,28 +9138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.1998275093078</v>
+        <v>168.0522079613005</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.2498803598117</v>
+        <v>229.9364448727129</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.856207567636</v>
+        <v>207.9916332919547</v>
       </c>
       <c r="AD7" t="n">
-        <v>133199.8275093078</v>
+        <v>168052.2079613005</v>
       </c>
       <c r="AE7" t="n">
-        <v>182249.8803598117</v>
+        <v>229936.4448727129</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.539667602144087e-06</v>
+        <v>4.883026723962389e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>164856.207567636</v>
+        <v>207991.6332919547</v>
       </c>
     </row>
   </sheetData>
@@ -9435,28 +9435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>241.451391109832</v>
+        <v>289.8229023758642</v>
       </c>
       <c r="AB2" t="n">
-        <v>330.3644453999071</v>
+        <v>396.5484811147148</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.8349264004495</v>
+        <v>358.7024506364144</v>
       </c>
       <c r="AD2" t="n">
-        <v>241451.391109832</v>
+        <v>289822.9023758642</v>
       </c>
       <c r="AE2" t="n">
-        <v>330364.4453999071</v>
+        <v>396548.4811147148</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.671224560336112e-06</v>
+        <v>3.11336459949918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>298834.9264004495</v>
+        <v>358702.4506364144</v>
       </c>
     </row>
     <row r="3">
@@ -9541,28 +9541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.9476820288527</v>
+        <v>230.1485115857381</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.948845516979</v>
+        <v>314.8993469871978</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.18951710281</v>
+        <v>284.8457952748422</v>
       </c>
       <c r="AD3" t="n">
-        <v>181947.6820288528</v>
+        <v>230148.5115857381</v>
       </c>
       <c r="AE3" t="n">
-        <v>248948.8455169791</v>
+        <v>314899.3469871978</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065179087771568e-06</v>
+        <v>3.847272004069216e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.415364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>225189.51710281</v>
+        <v>284845.7952748422</v>
       </c>
     </row>
     <row r="4">
@@ -9647,28 +9647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.3095655236252</v>
+        <v>207.5956464265311</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.9743757913284</v>
+        <v>284.0415219141963</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.1712072948243</v>
+        <v>256.9329977175687</v>
       </c>
       <c r="AD4" t="n">
-        <v>159309.5655236252</v>
+        <v>207595.6464265311</v>
       </c>
       <c r="AE4" t="n">
-        <v>217974.3757913283</v>
+        <v>284041.5219141963</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.222017410746051e-06</v>
+        <v>4.139449904144698e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.89453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>197171.2072948243</v>
+        <v>256932.9977175687</v>
       </c>
     </row>
     <row r="5">
@@ -9753,28 +9753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.3151551563904</v>
+        <v>202.6012360592964</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.1408031890464</v>
+        <v>277.2079493119144</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.9898212707226</v>
+        <v>250.751611693467</v>
       </c>
       <c r="AD5" t="n">
-        <v>154315.1551563904</v>
+        <v>202601.2360592964</v>
       </c>
       <c r="AE5" t="n">
-        <v>211140.8031890464</v>
+        <v>277207.9493119144</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.295613311475752e-06</v>
+        <v>4.276553485218221e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.673177083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>190989.8212707226</v>
+        <v>250751.611693467</v>
       </c>
     </row>
     <row r="6">
@@ -9859,28 +9859,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.2702889256298</v>
+        <v>186.6341960983096</v>
       </c>
       <c r="AB6" t="n">
-        <v>205.6064387652185</v>
+        <v>255.3611408212153</v>
       </c>
       <c r="AC6" t="n">
-        <v>185.9836488199738</v>
+        <v>230.989831942925</v>
       </c>
       <c r="AD6" t="n">
-        <v>150270.2889256298</v>
+        <v>186634.1960983096</v>
       </c>
       <c r="AE6" t="n">
-        <v>205606.4387652185</v>
+        <v>255361.1408212153</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.347586887150914e-06</v>
+        <v>4.373376314691179e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.5234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>185983.6488199738</v>
+        <v>230989.831942925</v>
       </c>
     </row>
     <row r="7">
@@ -9965,28 +9965,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>147.6238270194919</v>
+        <v>183.8171419915795</v>
       </c>
       <c r="AB7" t="n">
-        <v>201.9854328315833</v>
+        <v>251.5067231127332</v>
       </c>
       <c r="AC7" t="n">
-        <v>182.7082266105298</v>
+        <v>227.50327445083</v>
       </c>
       <c r="AD7" t="n">
-        <v>147623.8270194919</v>
+        <v>183817.1419915795</v>
       </c>
       <c r="AE7" t="n">
-        <v>201985.4328315833</v>
+        <v>251506.7231127332</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.375044181317014e-06</v>
+        <v>4.424527171185042e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.451822916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>182708.2266105298</v>
+        <v>227503.27445083</v>
       </c>
     </row>
     <row r="8">
@@ -10071,28 +10071,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>144.6399733970276</v>
+        <v>180.8332883691152</v>
       </c>
       <c r="AB8" t="n">
-        <v>197.9027926669985</v>
+        <v>247.4240829481484</v>
       </c>
       <c r="AC8" t="n">
-        <v>179.0152278932302</v>
+        <v>223.8102757335304</v>
       </c>
       <c r="AD8" t="n">
-        <v>144639.9733970276</v>
+        <v>180833.2883691152</v>
       </c>
       <c r="AE8" t="n">
-        <v>197902.7926669985</v>
+        <v>247424.0829481484</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.401983857255475e-06</v>
+        <v>4.474713744180305e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.380208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>179015.2278932302</v>
+        <v>223810.2757335304</v>
       </c>
     </row>
     <row r="9">
@@ -10177,28 +10177,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>142.9737273960899</v>
+        <v>179.1670423681775</v>
       </c>
       <c r="AB9" t="n">
-        <v>195.6229613789311</v>
+        <v>245.144251660081</v>
       </c>
       <c r="AC9" t="n">
-        <v>176.952980503532</v>
+        <v>221.7480283438321</v>
       </c>
       <c r="AD9" t="n">
-        <v>142973.7273960899</v>
+        <v>179167.0423681775</v>
       </c>
       <c r="AE9" t="n">
-        <v>195622.9613789311</v>
+        <v>245144.251660081</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.414712560035133e-06</v>
+        <v>4.498426352032215e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.341145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>176952.980503532</v>
+        <v>221748.0283438321</v>
       </c>
     </row>
   </sheetData>
@@ -10474,28 +10474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.9418376403241</v>
+        <v>201.2531793961675</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.7347460446154</v>
+        <v>275.3634787133598</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.2407632642877</v>
+        <v>249.0831747801071</v>
       </c>
       <c r="AD2" t="n">
-        <v>156941.8376403241</v>
+        <v>201253.1793961675</v>
       </c>
       <c r="AE2" t="n">
-        <v>214734.7460446154</v>
+        <v>275363.4787133598</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.238891368925336e-06</v>
+        <v>4.48785182706337e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.40234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>194240.7632642877</v>
+        <v>249083.1747801071</v>
       </c>
     </row>
     <row r="3">
@@ -10580,28 +10580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>130.4354937171366</v>
+        <v>163.8822850390349</v>
       </c>
       <c r="AB3" t="n">
-        <v>178.467596911565</v>
+        <v>224.2309723664561</v>
       </c>
       <c r="AC3" t="n">
-        <v>161.4348999432207</v>
+        <v>202.8306830740123</v>
       </c>
       <c r="AD3" t="n">
-        <v>130435.4937171366</v>
+        <v>163882.2850390349</v>
       </c>
       <c r="AE3" t="n">
-        <v>178467.5969115651</v>
+        <v>224230.9723664561</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.547646042182926e-06</v>
+        <v>5.106749752941095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.50390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>161434.8999432207</v>
+        <v>202830.6830740123</v>
       </c>
     </row>
     <row r="4">
@@ -10686,28 +10686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.9218381436193</v>
+        <v>157.1980372649254</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.5553259936802</v>
+        <v>215.0852896737244</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.3732036532851</v>
+        <v>194.5578515014257</v>
       </c>
       <c r="AD4" t="n">
-        <v>123921.8381436193</v>
+        <v>157198.0372649254</v>
       </c>
       <c r="AE4" t="n">
-        <v>169555.3259936802</v>
+        <v>215085.2896737244</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.662544524877465e-06</v>
+        <v>5.337063457591716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>153373.2036532851</v>
+        <v>194557.8515014257</v>
       </c>
     </row>
     <row r="5">
@@ -10792,28 +10792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>122.8036644402633</v>
+        <v>156.0798635615694</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.0253914024071</v>
+        <v>213.5553550824513</v>
       </c>
       <c r="AC5" t="n">
-        <v>151.9892838721259</v>
+        <v>193.1739317202665</v>
       </c>
       <c r="AD5" t="n">
-        <v>122803.6644402633</v>
+        <v>156079.8635615694</v>
       </c>
       <c r="AE5" t="n">
-        <v>168025.3914024071</v>
+        <v>213555.3550824513</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.674965982466064e-06</v>
+        <v>5.361962236472865e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>151989.2838721259</v>
+        <v>193173.9317202665</v>
       </c>
     </row>
   </sheetData>
@@ -11089,28 +11089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.9229283118518</v>
+        <v>168.4185834847679</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.2933058437222</v>
+        <v>230.437736027268</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.8498745492189</v>
+        <v>208.4450819222857</v>
       </c>
       <c r="AD2" t="n">
-        <v>125922.9283118519</v>
+        <v>168418.5834847678</v>
       </c>
       <c r="AE2" t="n">
-        <v>172293.3058437222</v>
+        <v>230437.736027268</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.521919894813479e-06</v>
+        <v>5.276014135566701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.842447916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>155849.8745492189</v>
+        <v>208445.0819222857</v>
       </c>
     </row>
     <row r="3">
@@ -11195,28 +11195,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.4254407766533</v>
+        <v>146.2759364512484</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.5619361647202</v>
+        <v>200.1411894913784</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.6198847132597</v>
+        <v>181.0399952663018</v>
       </c>
       <c r="AD3" t="n">
-        <v>114425.4407766533</v>
+        <v>146275.9364512484</v>
       </c>
       <c r="AE3" t="n">
-        <v>156561.9361647202</v>
+        <v>200141.1894913784</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793613246673372e-06</v>
+        <v>5.844413618793867e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.178385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>141619.8847132597</v>
+        <v>181039.9952663018</v>
       </c>
     </row>
     <row r="4">
@@ -11301,28 +11301,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.2566097103568</v>
+        <v>146.107105384952</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.3309340515125</v>
+        <v>199.9101873781707</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.410929117523</v>
+        <v>180.831039670565</v>
       </c>
       <c r="AD4" t="n">
-        <v>114256.6097103568</v>
+        <v>146107.105384952</v>
       </c>
       <c r="AE4" t="n">
-        <v>156330.9340515125</v>
+        <v>199910.1873781707</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.800003224012909e-06</v>
+        <v>5.85778185100405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.165364583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>141410.929117523</v>
+        <v>180831.039670565</v>
       </c>
     </row>
   </sheetData>
@@ -20179,28 +20179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.9630082736947</v>
+        <v>142.6739125363557</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.1927273793189</v>
+        <v>195.2127414609448</v>
       </c>
       <c r="AC2" t="n">
-        <v>138.5722284856218</v>
+        <v>176.5819113987709</v>
       </c>
       <c r="AD2" t="n">
-        <v>111963.0082736947</v>
+        <v>142673.9125363557</v>
       </c>
       <c r="AE2" t="n">
-        <v>153192.7273793189</v>
+        <v>195212.7414609448</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.755577011331664e-06</v>
+        <v>5.990226985368159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.477864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>138572.2284856218</v>
+        <v>176581.9113987709</v>
       </c>
     </row>
     <row r="3">
@@ -20285,28 +20285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.4261836639966</v>
+        <v>138.1370879266576</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.9852437977573</v>
+        <v>189.0052578793832</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.9571784248246</v>
+        <v>170.9668613379736</v>
       </c>
       <c r="AD3" t="n">
-        <v>107426.1836639966</v>
+        <v>138137.0879266576</v>
       </c>
       <c r="AE3" t="n">
-        <v>146985.2437977573</v>
+        <v>189005.2578793832</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.879167380342677e-06</v>
+        <v>6.258894622141485e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.204427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>132957.1784248246</v>
+        <v>170966.8613379736</v>
       </c>
     </row>
   </sheetData>
@@ -20582,28 +20582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.87167635511628</v>
+        <v>123.4941492328092</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.8076130319832</v>
+        <v>168.9701431576071</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.4189566303743</v>
+        <v>152.8438698457774</v>
       </c>
       <c r="AD2" t="n">
-        <v>94871.67635511627</v>
+        <v>123494.1492328092</v>
       </c>
       <c r="AE2" t="n">
-        <v>129807.6130319832</v>
+        <v>168970.1431576071</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.946064248265942e-06</v>
+        <v>7.007293250771856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.50390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>117418.9566303743</v>
+        <v>152843.8698457774</v>
       </c>
     </row>
   </sheetData>
@@ -20879,28 +20879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.9774404288925</v>
+        <v>235.9852142874856</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.9355152078469</v>
+        <v>322.8853811208747</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.1276344582728</v>
+        <v>292.0696535192728</v>
       </c>
       <c r="AD2" t="n">
-        <v>189977.4404288925</v>
+        <v>235985.2142874856</v>
       </c>
       <c r="AE2" t="n">
-        <v>259935.5152078469</v>
+        <v>322885.3811208747</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.994570289726952e-06</v>
+        <v>3.870619612615758e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.033854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>235127.6344582727</v>
+        <v>292069.6535192728</v>
       </c>
     </row>
     <row r="3">
@@ -20985,28 +20985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.4827920209852</v>
+        <v>191.4904763710272</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.05597429083</v>
+        <v>262.0057177343094</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.0583514813842</v>
+        <v>237.0002597611577</v>
       </c>
       <c r="AD3" t="n">
-        <v>145482.7920209852</v>
+        <v>191490.4763710272</v>
       </c>
       <c r="AE3" t="n">
-        <v>199055.97429083</v>
+        <v>262005.7177343094</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.341528077513737e-06</v>
+        <v>4.543918330176195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.842447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>180058.3514813842</v>
+        <v>237000.2597611577</v>
       </c>
     </row>
     <row r="4">
@@ -21091,28 +21091,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.140917755791</v>
+        <v>172.6254353132306</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.0104980205635</v>
+        <v>236.193736292172</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.9716013674343</v>
+        <v>213.6517376005063</v>
       </c>
       <c r="AD4" t="n">
-        <v>138140.917755791</v>
+        <v>172625.4353132306</v>
       </c>
       <c r="AE4" t="n">
-        <v>189010.4980205635</v>
+        <v>236193.736292172</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.471467991225413e-06</v>
+        <v>4.796076893383743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>170971.6013674343</v>
+        <v>213651.7376005063</v>
       </c>
     </row>
     <row r="5">
@@ -21197,28 +21197,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.0993038276856</v>
+        <v>167.5838213851253</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.1123394238244</v>
+        <v>229.2955776954329</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.7317933455394</v>
+        <v>207.4119295786113</v>
       </c>
       <c r="AD5" t="n">
-        <v>133099.3038276856</v>
+        <v>167583.8213851253</v>
       </c>
       <c r="AE5" t="n">
-        <v>182112.3394238244</v>
+        <v>229295.5776954329</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.545350083125515e-06</v>
+        <v>4.939450869925208e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.295572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>164731.7933455394</v>
+        <v>207411.9295786113</v>
       </c>
     </row>
     <row r="6">
@@ -21303,28 +21303,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>130.7660321870449</v>
+        <v>165.2505497444846</v>
       </c>
       <c r="AB6" t="n">
-        <v>178.9198542284215</v>
+        <v>226.10309250003</v>
       </c>
       <c r="AC6" t="n">
-        <v>161.8439944565036</v>
+        <v>204.5241306895756</v>
       </c>
       <c r="AD6" t="n">
-        <v>130766.0321870449</v>
+        <v>165250.5497444846</v>
       </c>
       <c r="AE6" t="n">
-        <v>178919.8542284215</v>
+        <v>226103.09250003</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.569846144918451e-06</v>
+        <v>4.986987393303668e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>161843.9944565036</v>
+        <v>204524.1306895756</v>
       </c>
     </row>
     <row r="7">
@@ -21409,28 +21409,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.0651489118668</v>
+        <v>165.5496664693065</v>
       </c>
       <c r="AB7" t="n">
-        <v>179.3291189274212</v>
+        <v>226.5123571990297</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.2141995070375</v>
+        <v>204.8943357401095</v>
       </c>
       <c r="AD7" t="n">
-        <v>131065.1489118668</v>
+        <v>165549.6664693065</v>
       </c>
       <c r="AE7" t="n">
-        <v>179329.1189274212</v>
+        <v>226512.3571990296</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.568664425354571e-06</v>
+        <v>4.984694174085411e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.236979166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>162214.1995070375</v>
+        <v>204894.3357401095</v>
       </c>
     </row>
   </sheetData>
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.5968328030391</v>
+        <v>280.4456454690925</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.8303186863878</v>
+        <v>383.7181045194922</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.024056692561</v>
+        <v>347.0965871758931</v>
       </c>
       <c r="AD2" t="n">
-        <v>220596.8328030391</v>
+        <v>280445.6454690925</v>
       </c>
       <c r="AE2" t="n">
-        <v>301830.3186863879</v>
+        <v>383718.1045194921</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.731813943950652e-06</v>
+        <v>3.249562226925906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.919270833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>273024.056692561</v>
+        <v>347096.5871758931</v>
       </c>
     </row>
     <row r="3">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.7779978972101</v>
+        <v>224.5547285131151</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.8754556177016</v>
+        <v>307.2456862069466</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.7912016079523</v>
+        <v>277.9225891374754</v>
       </c>
       <c r="AD3" t="n">
-        <v>176777.9978972101</v>
+        <v>224554.7285131151</v>
       </c>
       <c r="AE3" t="n">
-        <v>241875.4556177016</v>
+        <v>307245.6862069466</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.120101438582638e-06</v>
+        <v>3.978141864566097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.28515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>218791.2016079523</v>
+        <v>277922.5891374754</v>
       </c>
     </row>
     <row r="4">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.9344946176754</v>
+        <v>203.796476579601</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.3564548801905</v>
+        <v>278.8433301220846</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.9940142741512</v>
+        <v>252.2309140543865</v>
       </c>
       <c r="AD4" t="n">
-        <v>155934.4946176754</v>
+        <v>203796.476579601</v>
       </c>
       <c r="AE4" t="n">
-        <v>213356.4548801905</v>
+        <v>278843.3301220846</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.25511360525647e-06</v>
+        <v>4.231477644966312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>192994.0142741512</v>
+        <v>252230.9140543866</v>
       </c>
     </row>
     <row r="5">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.9883373451998</v>
+        <v>186.0341703121443</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.2206601740486</v>
+        <v>254.5401590693151</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.6346883961014</v>
+        <v>230.2472035371707</v>
       </c>
       <c r="AD5" t="n">
-        <v>149988.3373451998</v>
+        <v>186034.1703121443</v>
       </c>
       <c r="AE5" t="n">
-        <v>205220.6601740486</v>
+        <v>254540.1590693151</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.345335230605371e-06</v>
+        <v>4.400768801680777e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>185634.6883961014</v>
+        <v>230247.2035371707</v>
       </c>
     </row>
     <row r="6">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.7802256349484</v>
+        <v>182.6554664013008</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.831180200185</v>
+        <v>249.9172673206047</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.6641342302681</v>
+        <v>226.0655140886865</v>
       </c>
       <c r="AD6" t="n">
-        <v>146780.2256349484</v>
+        <v>182655.4664013008</v>
       </c>
       <c r="AE6" t="n">
-        <v>200831.180200185</v>
+        <v>249917.2673206046</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.38450323046102e-06</v>
+        <v>4.474263332244959e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.477864583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>181664.1342302681</v>
+        <v>226065.5140886865</v>
       </c>
     </row>
     <row r="7">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>142.98037677824</v>
+        <v>178.8556175445923</v>
       </c>
       <c r="AB7" t="n">
-        <v>195.6320593569389</v>
+        <v>244.7181464773585</v>
       </c>
       <c r="AC7" t="n">
-        <v>176.9612101832878</v>
+        <v>221.3625900417062</v>
       </c>
       <c r="AD7" t="n">
-        <v>142980.37677824</v>
+        <v>178855.6175445924</v>
       </c>
       <c r="AE7" t="n">
-        <v>195632.0593569389</v>
+        <v>244718.1464773585</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.424928591911066e-06</v>
+        <v>4.550117166334218e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.3671875</v>
       </c>
       <c r="AH7" t="n">
-        <v>176961.2101832878</v>
+        <v>221362.5900417062</v>
       </c>
     </row>
     <row r="8">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>141.145065336517</v>
+        <v>177.0203061028694</v>
       </c>
       <c r="AB8" t="n">
-        <v>193.1209052741484</v>
+        <v>242.2069923945681</v>
       </c>
       <c r="AC8" t="n">
-        <v>174.6897171217311</v>
+        <v>219.0910969801495</v>
       </c>
       <c r="AD8" t="n">
-        <v>141145.065336517</v>
+        <v>177020.3061028694</v>
       </c>
       <c r="AE8" t="n">
-        <v>193120.9052741484</v>
+        <v>242206.992394568</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.437241246014689e-06</v>
+        <v>4.573220534815628e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.334635416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>174689.7171217311</v>
+        <v>219091.0969801495</v>
       </c>
     </row>
     <row r="9">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>141.2636698850074</v>
+        <v>177.1389106513598</v>
       </c>
       <c r="AB9" t="n">
-        <v>193.2831852498563</v>
+        <v>242.3692723702759</v>
       </c>
       <c r="AC9" t="n">
-        <v>174.8365093243189</v>
+        <v>219.2378891827373</v>
       </c>
       <c r="AD9" t="n">
-        <v>141263.6698850074</v>
+        <v>177138.9106513598</v>
       </c>
       <c r="AE9" t="n">
-        <v>193283.1852498563</v>
+        <v>242369.2723702759</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.437383588836696e-06</v>
+        <v>4.573487625780731e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.334635416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>174836.5093243189</v>
+        <v>219237.8891827373</v>
       </c>
     </row>
   </sheetData>
@@ -22745,28 +22745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.07686885724381</v>
+        <v>125.6322998556053</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.8789017645341</v>
+        <v>171.8956551682633</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.2469504382719</v>
+        <v>155.4901750961194</v>
       </c>
       <c r="AD2" t="n">
-        <v>89076.86885724381</v>
+        <v>125632.2998556053</v>
       </c>
       <c r="AE2" t="n">
-        <v>121878.9017645341</v>
+        <v>171895.6551682633</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.86397390442913e-06</v>
+        <v>7.162581389338944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.927083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>110246.9504382719</v>
+        <v>155490.1750961194</v>
       </c>
     </row>
   </sheetData>
@@ -23042,28 +23042,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.7234839173839</v>
+        <v>176.1654143489633</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.6488113282883</v>
+        <v>241.037291781712</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.8809247735124</v>
+        <v>218.033030952099</v>
       </c>
       <c r="AD2" t="n">
-        <v>143723.4839173839</v>
+        <v>176165.4143489633</v>
       </c>
       <c r="AE2" t="n">
-        <v>196648.8113282883</v>
+        <v>241037.291781712</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.416156894041364e-06</v>
+        <v>4.975551924119964e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.037760416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>177880.9247735123</v>
+        <v>218033.030952099</v>
       </c>
     </row>
     <row r="3">
@@ -23148,28 +23148,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.861325658189</v>
+        <v>152.2179152351968</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.9995536739494</v>
+        <v>208.2712670051754</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.3476664461722</v>
+        <v>188.39414959282</v>
       </c>
       <c r="AD3" t="n">
-        <v>119861.325658189</v>
+        <v>152217.9152351968</v>
       </c>
       <c r="AE3" t="n">
-        <v>163999.5536739494</v>
+        <v>208271.2670051754</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.707875557903334e-06</v>
+        <v>5.576283343035543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.282552083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>148347.6664461722</v>
+        <v>188394.14959282</v>
       </c>
     </row>
     <row r="4">
@@ -23254,28 +23254,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.989413960715</v>
+        <v>149.3460035377227</v>
       </c>
       <c r="AB4" t="n">
-        <v>160.0700773896653</v>
+        <v>204.3417907208913</v>
       </c>
       <c r="AC4" t="n">
-        <v>144.7932138634043</v>
+        <v>184.8396970100521</v>
       </c>
       <c r="AD4" t="n">
-        <v>116989.413960715</v>
+        <v>149346.0035377227</v>
       </c>
       <c r="AE4" t="n">
-        <v>160070.0773896653</v>
+        <v>204341.7907208913</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.763319087210553e-06</v>
+        <v>5.690457285797645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.158854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>144793.2138634043</v>
+        <v>184839.6970100521</v>
       </c>
     </row>
   </sheetData>
@@ -23551,28 +23551,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.2808706364024</v>
+        <v>209.326099951496</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.7763347651296</v>
+        <v>286.4092047692736</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.3239968507775</v>
+        <v>259.074712244022</v>
       </c>
       <c r="AD2" t="n">
-        <v>164280.8706364024</v>
+        <v>209326.099951496</v>
       </c>
       <c r="AE2" t="n">
-        <v>224776.3347651296</v>
+        <v>286409.2047692736</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.148164535074269e-06</v>
+        <v>4.255909446384484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.623697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>203323.9968507775</v>
+        <v>259074.712244022</v>
       </c>
     </row>
     <row r="3">
@@ -23657,28 +23657,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.6207675519073</v>
+        <v>180.5806560124293</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.5623173304315</v>
+        <v>247.0784202123779</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.8525102028154</v>
+        <v>223.4976025641211</v>
       </c>
       <c r="AD3" t="n">
-        <v>135620.7675519073</v>
+        <v>180580.6560124293</v>
       </c>
       <c r="AE3" t="n">
-        <v>185562.3173304315</v>
+        <v>247078.4202123779</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.470609327047827e-06</v>
+        <v>4.894731945169617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.627604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>167852.5102028153</v>
+        <v>223497.6025641211</v>
       </c>
     </row>
     <row r="4">
@@ -23763,28 +23763,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.0451583762997</v>
+        <v>162.7438290165993</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.5652787609667</v>
+        <v>222.6732866114256</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.7141363669945</v>
+        <v>201.4216606612157</v>
       </c>
       <c r="AD4" t="n">
-        <v>129045.1583762997</v>
+        <v>162743.8290165993</v>
       </c>
       <c r="AE4" t="n">
-        <v>176565.2787609667</v>
+        <v>222673.2866114256</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.59017400923306e-06</v>
+        <v>5.131611593845364e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.321614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>159714.1363669945</v>
+        <v>201421.6606612157</v>
       </c>
     </row>
     <row r="5">
@@ -23869,28 +23869,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>125.5680637215825</v>
+        <v>159.2667343618821</v>
       </c>
       <c r="AB5" t="n">
-        <v>171.8077644557952</v>
+        <v>217.915772306254</v>
       </c>
       <c r="AC5" t="n">
-        <v>155.4106725498937</v>
+        <v>197.1181968441149</v>
       </c>
       <c r="AD5" t="n">
-        <v>125568.0637215825</v>
+        <v>159266.7343618821</v>
       </c>
       <c r="AE5" t="n">
-        <v>171807.7644557952</v>
+        <v>217915.772306254</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.635781156045983e-06</v>
+        <v>5.221967748494875e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.2109375</v>
       </c>
       <c r="AH5" t="n">
-        <v>155410.6725498937</v>
+        <v>197118.1968441149</v>
       </c>
     </row>
     <row r="6">
@@ -23975,28 +23975,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>125.7783842968453</v>
+        <v>159.4770549371449</v>
       </c>
       <c r="AB6" t="n">
-        <v>172.0955343455584</v>
+        <v>218.2035421960173</v>
       </c>
       <c r="AC6" t="n">
-        <v>155.6709780852657</v>
+        <v>197.3785023794869</v>
       </c>
       <c r="AD6" t="n">
-        <v>125778.3842968453</v>
+        <v>159477.0549371449</v>
       </c>
       <c r="AE6" t="n">
-        <v>172095.5343455584</v>
+        <v>218203.5421960173</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.635630222300326e-06</v>
+        <v>5.221668720956046e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.2109375</v>
       </c>
       <c r="AH6" t="n">
-        <v>155670.9780852657</v>
+        <v>197378.5023794869</v>
       </c>
     </row>
   </sheetData>
